--- a/docs/Product Backlog MachineTech.xlsx
+++ b/docs/Product Backlog MachineTech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio-\Desktop\Faculdade\2º Semestre\grupo-06-adsa-20201\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DFAA1-FB42-4F26-AE9A-BF56889575D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC23089-37A0-4875-84FD-F8088E2612CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E370704B-02C3-47C6-A3BD-E588D50229DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Nome</t>
   </si>
@@ -208,6 +208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,15 +216,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -231,36 +250,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EEE34B-C83F-4C2E-B37D-1F2A14D2ED85}">
   <dimension ref="A3:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,77 +666,77 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="G5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -670,54 +747,54 @@
         <v>13</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="5"/>
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -728,186 +805,186 @@
         <v>15</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="5"/>
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="4"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" s="4"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="7" t="s">
         <v>46</v>
       </c>
@@ -915,81 +992,83 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
     </row>
     <row r="19" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="9" t="s">
         <v>42</v>
       </c>
@@ -997,10 +1076,14 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="N20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
@@ -1021,47 +1104,50 @@
       <c r="O23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="I12:M12"/>
+  <mergeCells count="99">
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="I9:M9"/>
     <mergeCell ref="G3:S4"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:M7"/>
@@ -1078,48 +1164,46 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
